--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10,777.27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12,113.51</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11,484.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,928.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>13,127.47</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,928.02</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11,484.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12,113.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,777.27</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>13127.47</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>10777.27</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>11886.19</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>10,777.27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12,113.51</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11,484.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11,928.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>13,127.47</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11,928.02</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11,484.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12,113.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10,777.27</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>13127.47</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>10777.27</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>11886.19</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>7,222.54</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7,890.77</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7,458.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7,516.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8,722.67</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7,516.60</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7,458.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7,890.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7,222.54</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>8722.67</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>7222.54</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>7762.18</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>623.12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>648.68</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>678.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>664.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>742.79</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>664.96</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>678.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>648.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>623.12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>742.79</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>623.12</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>671.578</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-194.60</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-66.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>171.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-101.61</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>171.10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-66.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-194.60</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>171.1</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-194.6</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-24.298</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>381.61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>384.56</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>387.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>434.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>393.49</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>434.96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>387.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>384.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>381.61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>434.96</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>381.61</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>396.37</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>95.60</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>87.63</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>91.12</v>
       </c>
     </row>
     <row r="11">
@@ -822,15 +736,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>-14.59</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>-14.59</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>-14.59</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>611.75</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>689.52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>735.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>725.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>717.95</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>725.14</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>735.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>689.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>611.75</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>735.62</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>611.75</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>695.996</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,045.22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,341.75</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,215.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,321.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,556.58</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,321.57</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,215.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,341.75</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,045.22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2556.58</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2045.22</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2296.162</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>361.35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>346.11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>348.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>320.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>384.54</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>320.94</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>348.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>346.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>361.35</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>384.54</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>320.94</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>352.3200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,406.57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,687.86</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,564.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,642.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,941.12</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,642.51</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,564.35</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,687.86</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,406.57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2941.12</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2406.57</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2648.482</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>15.92</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.67</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>15.6</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,400.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,675.76</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,541.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,621.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,925.20</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,621.84</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,541.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,675.76</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,400.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2925.2</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2400.04</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2632.882</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,400.04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,675.76</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,541.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,621.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,925.20</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,621.84</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,541.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,675.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,400.04</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2925.2</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2400.04</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2632.882</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>563.90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>633.88</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>605.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>633.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>920.16</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>633.50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>605.57</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>633.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>563.90</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>920.16</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>563.9</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>671.402</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,836.14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,041.88</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,936.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,988.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,005.04</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,988.34</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,936.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,041.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,836.14</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2041.88</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1836.14</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1961.48</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,836.14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,041.88</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,936.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,988.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,005.04</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,988.34</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,936.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,041.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,836.14</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2041.88</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1836.14</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1961.48</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>282.96</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>283.18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>279.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>279.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>279.26</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>279.18</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>279.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>283.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>282.96</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>283.18</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>279.18</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>280.752</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>71.90</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>71.20</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>68.50</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>64.90</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>69.74000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>71.90</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>71.20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>68.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>64.90</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>69.74000000000001</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>71.90</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>71.20</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>68.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>64.90</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>69.74000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>71.90</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>71.20</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>68.50</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>64.90</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>69.74000000000001</v>
       </c>
     </row>
     <row r="31"/>
